--- a/data/qa/QTP/Test021.xlsx
+++ b/data/qa/QTP/Test021.xlsx
@@ -246,12 +246,6 @@
     <t>Manage Studies page loaded</t>
   </si>
   <si>
-    <t>Click Creat New Study on left menu</t>
-  </si>
-  <si>
-    <t>Creat New Study page loaded</t>
-  </si>
-  <si>
     <t>Manage List page loaded</t>
   </si>
   <si>
@@ -271,6 +265,12 @@
   </si>
   <si>
     <t>Search QA Test Study - QA3 Group page loaded</t>
+  </si>
+  <si>
+    <t>Click Create New Study on left menu</t>
+  </si>
+  <si>
+    <t>Create New Study page loaded</t>
   </si>
 </sst>
 </file>
@@ -630,8 +630,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+    <sheetView tabSelected="1" topLeftCell="C10" workbookViewId="0">
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -784,7 +784,7 @@
         <v>8</v>
       </c>
       <c r="G9" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="H9" t="s">
         <v>15</v>
@@ -795,7 +795,7 @@
         <v>9</v>
       </c>
       <c r="G10" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="H10" t="s">
         <v>15</v>
@@ -806,10 +806,10 @@
         <v>10</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="H11" s="4" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -875,7 +875,7 @@
         <v>41</v>
       </c>
       <c r="H17" s="4" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="18" spans="6:8">
@@ -883,10 +883,10 @@
         <v>17</v>
       </c>
       <c r="G18" s="4" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="H18" s="4" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="19" spans="6:8">
@@ -897,7 +897,7 @@
         <v>17</v>
       </c>
       <c r="H19" s="3" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="20" spans="6:8">
@@ -1202,10 +1202,10 @@
         <v>46</v>
       </c>
       <c r="G47" s="3" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="H47" s="3" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
     </row>
     <row r="48" spans="6:8">
